--- a/biology/Biochimie/Voie_du_shikimate/Voie_du_shikimate.xlsx
+++ b/biology/Biochimie/Voie_du_shikimate/Voie_du_shikimate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie du shikimate, ou voie de l'acide shikimique, est une voie métabolique aboutissant à la biosynthèse de certains acides aminés aromatiques. Elle est présente chez des bactéries, des mycètes, des algues, des protistes et des plantes, mais est absente chez les animaux. Pour cette raison, les acides aminés produits par ces réactions sont dits essentiels chez les animaux, c'est-à-dire que ces derniers doivent se les procurer à partir de leur alimentation car ils ne peuvent les produire eux-mêmes par leur métabolisme.
 Il s'agit d'une série de réactions convertissant le phosphoénolpyruvate et l'érythrose-4-phosphate en chorismate, précurseur commun d'acides aminés aromatiques tels que la phénylalanine, le tryptophane et la tyrosine. Si les grandes lignes de cette voie métabolique sont communes aux organismes qui l'utilisent, chacun d'entre eux la met en œuvre d'une manière qui lui est propre, de sorte qu'il en existe de nombreuses variantes.
@@ -512,27 +524,18 @@
           <t>Formation du chorismate</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retient généralement sept enzymes structurantes pour la voie du shikimate chez Escherichia coli[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On retient généralement sept enzymes structurantes pour la voie du shikimate chez Escherichia coli :
 EC 2.5.1.54 : DAHP synthase ;
 EC 4.2.3.4 : 3-déshydroquinate synthase ;
 EC 4.2.1.10 : 3-déshydroquinate déshydratase ;
 EC 1.1.1.25 shikimate désydrogénase ;
 EC 2.7.1.71 : shikimate kinase ;
 EC 2.5.1.19 : EPSP synthase ;
-EC 4.2.3.5 : chorismate synthase.
-Condensation du phosphoénolpyruvate et de l'érythrose-4-phosphate en DAHP
-La voie du shikimate commence par la condensation du phosphoénolpyruvate avec l'érythrose-4-phosphate sous l'action d'une 3-désoxy-7-phosphoheptulonate synthase (DAHP synthase) pour former du 3-désoxy-D-arabinoheptulosonate-7-phosphate avec élimination d'une molécule de phosphate :
-Conversion du DAHP en 3-déshydroquinate
-Le DAHP est déphosphorylé par la 3-déshydroquinate synthase pour former du 3-déshydroquinate.
-Conversion du 3-déshydroquinate en 3-déshydroshikimate puis en shikimate
-Le 3-déshydroquinate est déshydraté par la 3-déshydroquinate déshydratase pour donner du 3-déshydroshikimate, qui est ensuite réduit en shikimate par du NADPH sous l'action d'une shikimate désydrogénase.
-Conversion du shikimate en 3-phosphoshikimate puis en 5-O-(1-carboxyvinyl)-3-phosphoshikimate
-Le shikimate est phosphorylé par la shikimate kinase pour donner du 3-phosphoshikimate[2], qui est alors condensé avec le phosphoénolpyruvate sous l'action de l'EPSP synthase pour donner du 5-O-(1-carboxyvinyl)-3-phosphoshikimate, ou 5-énolpyruvyl-3-phosphoshikimate.
-Conversion du 5-énolpyruvyl-3-phosphoshikimate en chorismate
-Le 5-énolpyruvyl-3-phosphoshikimate est déphosphorylé par la chorismate synthase pour donner du chorismate.
-</t>
+EC 4.2.3.5 : chorismate synthase.</t>
         </is>
       </c>
     </row>
@@ -557,19 +560,322 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Formation du chorismate</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Condensation du phosphoénolpyruvate et de l'érythrose-4-phosphate en DAHP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La voie du shikimate commence par la condensation du phosphoénolpyruvate avec l'érythrose-4-phosphate sous l'action d'une 3-désoxy-7-phosphoheptulonate synthase (DAHP synthase) pour former du 3-désoxy-D-arabinoheptulosonate-7-phosphate avec élimination d'une molécule de phosphate :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Formation du chorismate</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Conversion du DAHP en 3-déshydroquinate</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le DAHP est déphosphorylé par la 3-déshydroquinate synthase pour former du 3-déshydroquinate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formation du chorismate</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Conversion du 3-déshydroquinate en 3-déshydroshikimate puis en shikimate</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3-déshydroquinate est déshydraté par la 3-déshydroquinate déshydratase pour donner du 3-déshydroshikimate, qui est ensuite réduit en shikimate par du NADPH sous l'action d'une shikimate désydrogénase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Formation du chorismate</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conversion du shikimate en 3-phosphoshikimate puis en 5-O-(1-carboxyvinyl)-3-phosphoshikimate</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le shikimate est phosphorylé par la shikimate kinase pour donner du 3-phosphoshikimate, qui est alors condensé avec le phosphoénolpyruvate sous l'action de l'EPSP synthase pour donner du 5-O-(1-carboxyvinyl)-3-phosphoshikimate, ou 5-énolpyruvyl-3-phosphoshikimate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Formation du chorismate</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conversion du 5-énolpyruvyl-3-phosphoshikimate en chorismate</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 5-énolpyruvyl-3-phosphoshikimate est déphosphorylé par la chorismate synthase pour donner du chorismate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Conversion du chorismate en acides aminés aromatiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Formation du préphénate
-Un réarrangement de Claisen du chorismate sous l'action de la chorismate mutase conduit à l'acide préphénique[3],[4].
-Conversion du préphénate en phénylalanine
-Le préphénate peut subir une décarboxylation oxydative éliminant également le groupe hydroxyle pour donner du phénylpyruvate, qui peut donner de la phénylalanine par transamination à partir de glutamate, converti pour sa part en α-cétoglutarate.
-Conversion du préphénate en tyrosine
-Le préphénate peut également subir une décarboxylation oxydative conservant le groupe hydroxyle, ce qui donne 4-hydroxyphénylpyruvate, lequel peut ensuite donner de la tyrosine par transamination à partir de glutamate.
-Conversion du chorismate en tryptophane
-La biosynthèse du tryptophane est plus complexe, et se déroule, à partir du chorismate, en six étapes.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Formation du préphénate</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un réarrangement de Claisen du chorismate sous l'action de la chorismate mutase conduit à l'acide préphénique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Conversion du chorismate en acides aminés aromatiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Formation du préphénate</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Conversion du préphénate en phénylalanine</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le préphénate peut subir une décarboxylation oxydative éliminant également le groupe hydroxyle pour donner du phénylpyruvate, qui peut donner de la phénylalanine par transamination à partir de glutamate, converti pour sa part en α-cétoglutarate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Conversion du chorismate en acides aminés aromatiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Formation du préphénate</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Conversion du préphénate en tyrosine</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le préphénate peut également subir une décarboxylation oxydative conservant le groupe hydroxyle, ce qui donne 4-hydroxyphénylpyruvate, lequel peut ensuite donner de la tyrosine par transamination à partir de glutamate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Voie_du_shikimate</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Conversion du chorismate en acides aminés aromatiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Conversion du chorismate en tryptophane</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La biosynthèse du tryptophane est plus complexe, et se déroule, à partir du chorismate, en six étapes.
 </t>
         </is>
       </c>
